--- a/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/xmlbeans/XmlBeansSupportTest.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/xmlbeans/XmlBeansSupportTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>classA</t>
   </si>
@@ -43,9 +43,6 @@
     <t>org.openuri.easypo</t>
   </si>
   <si>
-    <t>classABeanFactory</t>
-  </si>
-  <si>
     <t>Class A</t>
   </si>
   <si>
@@ -58,11 +55,6 @@
     <t>Field B</t>
   </si>
   <si>
-    <t>Class A 
-bean factory 
-class</t>
-  </si>
-  <si>
     <t>PurchaseOrderTO</t>
   </si>
   <si>
@@ -100,9 +92,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>org.dozer.factory.XMLBeanFactory</t>
   </si>
   <si>
     <t>org.openl.rules.mapping.to.xmlbeans</t>
@@ -209,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,16 +207,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C8:G26"/>
+  <dimension ref="C8:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:G28"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -534,45 +522,43 @@
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:7">
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="3:6">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="5" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="5"/>
+    <row r="10" spans="3:6">
+      <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="5"/>
+    <row r="11" spans="3:6">
+      <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
@@ -585,168 +571,138 @@
       <c r="F17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" ht="45">
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3" t="s">
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
